--- a/Assets/Editor/ExcelConfigs/Role.xlsx
+++ b/Assets/Editor/ExcelConfigs/Role.xlsx
@@ -1079,13 +1079,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="6" max="6" width="11" style="1"/>
   </cols>
@@ -1195,11 +1195,6 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>1003</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
